--- a/tp2/output/data/heatmap_best.xlsx
+++ b/tp2/output/data/heatmap_best.xlsx
@@ -29,7 +29,7 @@
       <b val="1"/>
     </font>
   </fonts>
-  <fills count="47">
+  <fills count="46">
     <fill>
       <patternFill/>
     </fill>
@@ -38,32 +38,20 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="0010EE00"/>
-        <bgColor rgb="0010EE00"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="0045B900"/>
-        <bgColor rgb="0045B900"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="003CC200"/>
-        <bgColor rgb="003CC200"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="005AA400"/>
-        <bgColor rgb="005AA400"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="006F8F00"/>
-        <bgColor rgb="006F8F00"/>
+        <fgColor rgb="007E8000"/>
+        <bgColor rgb="007E8000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00877700"/>
+        <bgColor rgb="00877700"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="005CA200"/>
+        <bgColor rgb="005CA200"/>
       </patternFill>
     </fill>
     <fill>
@@ -74,8 +62,170 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="0044BA00"/>
-        <bgColor rgb="0044BA00"/>
+        <fgColor rgb="00ED1100"/>
+        <bgColor rgb="00ED1100"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00A05E00"/>
+        <bgColor rgb="00A05E00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="004DB100"/>
+        <bgColor rgb="004DB100"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0033CB00"/>
+        <bgColor rgb="0033CB00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00728C00"/>
+        <bgColor rgb="00728C00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="001DE100"/>
+        <bgColor rgb="001DE100"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0052AC00"/>
+        <bgColor rgb="0052AC00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00F40A00"/>
+        <bgColor rgb="00F40A00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="004FAF00"/>
+        <bgColor rgb="004FAF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="006A9400"/>
+        <bgColor rgb="006A9400"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="002DD100"/>
+        <bgColor rgb="002DD100"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="007B8300"/>
+        <bgColor rgb="007B8300"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0054AA00"/>
+        <bgColor rgb="0054AA00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00996500"/>
+        <bgColor rgb="00996500"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0021DD00"/>
+        <bgColor rgb="0021DD00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0000FF00"/>
+        <bgColor rgb="0000FF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00699500"/>
+        <bgColor rgb="00699500"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="008F6F00"/>
+        <bgColor rgb="008F6F00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0012EC00"/>
+        <bgColor rgb="0012EC00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00916D00"/>
+        <bgColor rgb="00916D00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00F30B00"/>
+        <bgColor rgb="00F30B00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00A15D00"/>
+        <bgColor rgb="00A15D00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="009A6400"/>
+        <bgColor rgb="009A6400"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0040BE00"/>
+        <bgColor rgb="0040BE00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00C83600"/>
+        <bgColor rgb="00C83600"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00E01E00"/>
+        <bgColor rgb="00E01E00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00E21C00"/>
+        <bgColor rgb="00E21C00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00CD3100"/>
+        <bgColor rgb="00CD3100"/>
       </patternFill>
     </fill>
     <fill>
@@ -86,200 +236,20 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00C73700"/>
-        <bgColor rgb="00C73700"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00C43A00"/>
-        <bgColor rgb="00C43A00"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00BA4400"/>
-        <bgColor rgb="00BA4400"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00996500"/>
-        <bgColor rgb="00996500"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00926C00"/>
-        <bgColor rgb="00926C00"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00837B00"/>
-        <bgColor rgb="00837B00"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="0000FF00"/>
-        <bgColor rgb="0000FF00"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="0039C500"/>
-        <bgColor rgb="0039C500"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="0054AA00"/>
-        <bgColor rgb="0054AA00"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="0057A700"/>
-        <bgColor rgb="0057A700"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="0046B800"/>
-        <bgColor rgb="0046B800"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="0033CB00"/>
-        <bgColor rgb="0033CB00"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="002AD400"/>
-        <bgColor rgb="002AD400"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00897500"/>
-        <bgColor rgb="00897500"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="0049B500"/>
-        <bgColor rgb="0049B500"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00827C00"/>
-        <bgColor rgb="00827C00"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00A95500"/>
-        <bgColor rgb="00A95500"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00CD3100"/>
-        <bgColor rgb="00CD3100"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00ED1100"/>
-        <bgColor rgb="00ED1100"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00EF0F00"/>
-        <bgColor rgb="00EF0F00"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00976700"/>
-        <bgColor rgb="00976700"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00F10D00"/>
-        <bgColor rgb="00F10D00"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00BE4000"/>
-        <bgColor rgb="00BE4000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="007F7F00"/>
-        <bgColor rgb="007F7F00"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00DB2300"/>
-        <bgColor rgb="00DB2300"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00C33B00"/>
-        <bgColor rgb="00C33B00"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00E61800"/>
-        <bgColor rgb="00E61800"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="008B7300"/>
-        <bgColor rgb="008B7300"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="009A6400"/>
-        <bgColor rgb="009A6400"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00D12D00"/>
-        <bgColor rgb="00D12D00"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="009F5F00"/>
-        <bgColor rgb="009F5F00"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00FE0000"/>
-        <bgColor rgb="00FE0000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00FC0200"/>
-        <bgColor rgb="00FC0200"/>
+        <fgColor rgb="007D8100"/>
+        <bgColor rgb="007D8100"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0058A600"/>
+        <bgColor rgb="0058A600"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00AA5400"/>
+        <bgColor rgb="00AA5400"/>
       </patternFill>
     </fill>
     <fill>
@@ -290,20 +260,44 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00DA2400"/>
-        <bgColor rgb="00DA2400"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00A15D00"/>
-        <bgColor rgb="00A15D00"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00C83600"/>
-        <bgColor rgb="00C83600"/>
+        <fgColor rgb="009C6200"/>
+        <bgColor rgb="009C6200"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="005BA300"/>
+        <bgColor rgb="005BA300"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00758900"/>
+        <bgColor rgb="00758900"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0006F800"/>
+        <bgColor rgb="0006F800"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00936B00"/>
+        <bgColor rgb="00936B00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FF0000"/>
+        <bgColor rgb="00FF0000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00AE5000"/>
+        <bgColor rgb="00AE5000"/>
       </patternFill>
     </fill>
   </fills>
@@ -325,7 +319,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
@@ -374,7 +368,6 @@
     <xf numFmtId="0" fontId="0" fillId="43" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="44" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="45" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="46" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -797,25 +790,25 @@
         </is>
       </c>
       <c r="B2" s="2" t="n">
-        <v>37.21054344482379</v>
+        <v>34.56961047698816</v>
       </c>
       <c r="C2" s="3" t="n">
-        <v>32.74482729296741</v>
+        <v>33.80734890733969</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>33.47152884858674</v>
+        <v>37.4009995487917</v>
       </c>
       <c r="E2" s="5" t="n">
-        <v>30.97575712787021</v>
+        <v>35.39745692067864</v>
       </c>
       <c r="F2" s="6" t="n">
-        <v>29.28032298018603</v>
+        <v>25.34509611142192</v>
       </c>
       <c r="G2" s="7" t="n">
-        <v>28.80586427078616</v>
+        <v>31.7990593904367</v>
       </c>
       <c r="H2" s="8" t="n">
-        <v>32.83161621039908</v>
+        <v>38.67450869732065</v>
       </c>
     </row>
     <row r="3">
@@ -825,25 +818,25 @@
         </is>
       </c>
       <c r="B3" s="9" t="n">
-        <v>28.63069919217021</v>
+        <v>40.79202721164224</v>
       </c>
       <c r="C3" s="10" t="n">
-        <v>21.9371058320414</v>
+        <v>35.53855625658157</v>
       </c>
       <c r="D3" s="11" t="n">
-        <v>22.11599594067343</v>
+        <v>42.6031532407655</v>
       </c>
       <c r="E3" s="12" t="n">
-        <v>22.99503656740675</v>
+        <v>38.21662722619897</v>
       </c>
       <c r="F3" s="13" t="n">
-        <v>25.75592729739014</v>
+        <v>24.75561981086007</v>
       </c>
       <c r="G3" s="14" t="n">
-        <v>26.30884029793572</v>
+        <v>38.47510039156662</v>
       </c>
       <c r="H3" s="15" t="n">
-        <v>27.57105864662024</v>
+        <v>36.22025788876599</v>
       </c>
     </row>
     <row r="4">
@@ -853,25 +846,25 @@
         </is>
       </c>
       <c r="B4" s="16" t="n">
-        <v>38.5611743192348</v>
+        <v>41.34404590295242</v>
       </c>
       <c r="C4" s="17" t="n">
-        <v>33.76851338640959</v>
-      </c>
-      <c r="D4" s="18" t="n">
-        <v>31.54023988664898</v>
-      </c>
-      <c r="E4" s="19" t="n">
-        <v>31.28789943982922</v>
-      </c>
-      <c r="F4" s="20" t="n">
-        <v>32.63567338967822</v>
-      </c>
-      <c r="G4" s="21" t="n">
-        <v>34.25855316437875</v>
-      </c>
-      <c r="H4" s="22" t="n">
-        <v>35.0024315841814</v>
+        <v>34.79410437901196</v>
+      </c>
+      <c r="D4" s="2" t="n">
+        <v>34.59453478003564</v>
+      </c>
+      <c r="E4" s="18" t="n">
+        <v>38.05696823464935</v>
+      </c>
+      <c r="F4" s="19" t="n">
+        <v>32.34236978711257</v>
+      </c>
+      <c r="G4" s="20" t="n">
+        <v>42.26866497444157</v>
+      </c>
+      <c r="H4" s="21" t="n">
+        <v>45.0809723859586</v>
       </c>
     </row>
     <row r="5">
@@ -880,26 +873,26 @@
           <t>probabilistic_tournament</t>
         </is>
       </c>
-      <c r="B5" s="23" t="n">
-        <v>27.08607185623599</v>
-      </c>
-      <c r="C5" s="24" t="n">
-        <v>32.421329495569</v>
-      </c>
-      <c r="D5" s="25" t="n">
-        <v>27.67125361220515</v>
-      </c>
-      <c r="E5" s="26" t="n">
-        <v>24.43476886965811</v>
-      </c>
-      <c r="F5" s="27" t="n">
-        <v>21.4039619963495</v>
-      </c>
-      <c r="G5" s="14" t="n">
-        <v>26.30138732827725</v>
-      </c>
-      <c r="H5" s="28" t="n">
-        <v>18.68626161677078</v>
+      <c r="B5" s="22" t="n">
+        <v>36.31928183752044</v>
+      </c>
+      <c r="C5" s="23" t="n">
+        <v>33.13156521967881</v>
+      </c>
+      <c r="D5" s="24" t="n">
+        <v>43.5709107451142</v>
+      </c>
+      <c r="E5" s="25" t="n">
+        <v>33.03493403850568</v>
+      </c>
+      <c r="F5" s="26" t="n">
+        <v>24.91005816390107</v>
+      </c>
+      <c r="G5" s="27" t="n">
+        <v>31.66536181671854</v>
+      </c>
+      <c r="H5" s="17" t="n">
+        <v>34.82087895794083</v>
       </c>
     </row>
     <row r="6">
@@ -908,26 +901,26 @@
           <t>ranking</t>
         </is>
       </c>
-      <c r="B6" s="29" t="n">
-        <v>18.584299272913</v>
-      </c>
-      <c r="C6" s="30" t="n">
-        <v>25.92261378708327</v>
-      </c>
-      <c r="D6" s="31" t="n">
-        <v>18.41987345737342</v>
-      </c>
-      <c r="E6" s="28" t="n">
-        <v>18.68518356636421</v>
-      </c>
-      <c r="F6" s="32" t="n">
-        <v>22.68928070858389</v>
-      </c>
-      <c r="G6" s="33" t="n">
-        <v>27.91852246198484</v>
-      </c>
-      <c r="H6" s="34" t="n">
-        <v>20.22120610238393</v>
+      <c r="B6" s="28" t="n">
+        <v>32.27873144294159</v>
+      </c>
+      <c r="C6" s="29" t="n">
+        <v>39.72221773918098</v>
+      </c>
+      <c r="D6" s="19" t="n">
+        <v>32.31729905358404</v>
+      </c>
+      <c r="E6" s="30" t="n">
+        <v>28.40401156158803</v>
+      </c>
+      <c r="F6" s="31" t="n">
+        <v>26.41968659287506</v>
+      </c>
+      <c r="G6" s="32" t="n">
+        <v>26.24094458606573</v>
+      </c>
+      <c r="H6" s="33" t="n">
+        <v>27.99622333553223</v>
       </c>
     </row>
     <row r="7">
@@ -936,26 +929,26 @@
           <t>roulette</t>
         </is>
       </c>
-      <c r="B7" s="35" t="n">
-        <v>22.22438648598999</v>
-      </c>
-      <c r="C7" s="36" t="n">
-        <v>19.32909887670381</v>
-      </c>
-      <c r="D7" s="37" t="n">
-        <v>26.89940700882256</v>
-      </c>
-      <c r="E7" s="26" t="n">
-        <v>24.39121445666662</v>
+      <c r="B7" s="34" t="n">
+        <v>35.22139594780863</v>
+      </c>
+      <c r="C7" s="35" t="n">
+        <v>34.63919572821099</v>
+      </c>
+      <c r="D7" s="36" t="n">
+        <v>37.72031811324442</v>
+      </c>
+      <c r="E7" s="37" t="n">
+        <v>30.96726829940629</v>
       </c>
       <c r="F7" s="38" t="n">
-        <v>25.62783951157987</v>
+        <v>24.24797968996332</v>
       </c>
       <c r="G7" s="39" t="n">
-        <v>21.07664725858986</v>
-      </c>
-      <c r="H7" s="5" t="n">
-        <v>31.0002374331596</v>
+        <v>32.12303895780693</v>
+      </c>
+      <c r="H7" s="40" t="n">
+        <v>37.46833682267284</v>
       </c>
     </row>
     <row r="8">
@@ -964,26 +957,26 @@
           <t>universal</t>
         </is>
       </c>
-      <c r="B8" s="40" t="n">
-        <v>25.23639001534314</v>
-      </c>
-      <c r="C8" s="41" t="n">
-        <v>17.26324856121119</v>
+      <c r="B8" s="41" t="n">
+        <v>35.36520624208785</v>
+      </c>
+      <c r="C8" s="12" t="n">
+        <v>38.25313599468108</v>
       </c>
       <c r="D8" s="42" t="n">
-        <v>17.48047469443327</v>
+        <v>44.5457229253858</v>
       </c>
       <c r="E8" s="43" t="n">
-        <v>17.65668437490238</v>
+        <v>32.83170488278888</v>
       </c>
       <c r="F8" s="44" t="n">
-        <v>20.35259321006774</v>
+        <v>23.91484095570765</v>
       </c>
       <c r="G8" s="45" t="n">
-        <v>25.07896857048453</v>
-      </c>
-      <c r="H8" s="46" t="n">
-        <v>21.84894849631369</v>
+        <v>30.61002008750804</v>
+      </c>
+      <c r="H8" s="40" t="n">
+        <v>37.48859237172561</v>
       </c>
     </row>
   </sheetData>

--- a/tp2/output/data/heatmap_best.xlsx
+++ b/tp2/output/data/heatmap_best.xlsx
@@ -29,7 +29,7 @@
       <b val="1"/>
     </font>
   </fonts>
-  <fills count="46">
+  <fills count="43">
     <fill>
       <patternFill/>
     </fill>
@@ -38,56 +38,206 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="007E8000"/>
-        <bgColor rgb="007E8000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00877700"/>
-        <bgColor rgb="00877700"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="005CA200"/>
-        <bgColor rgb="005CA200"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00748A00"/>
-        <bgColor rgb="00748A00"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00ED1100"/>
-        <bgColor rgb="00ED1100"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00A05E00"/>
-        <bgColor rgb="00A05E00"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="004DB100"/>
-        <bgColor rgb="004DB100"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="0033CB00"/>
-        <bgColor rgb="0033CB00"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00728C00"/>
-        <bgColor rgb="00728C00"/>
+        <fgColor rgb="0029D500"/>
+        <bgColor rgb="0029D500"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0031CD00"/>
+        <bgColor rgb="0031CD00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0009F500"/>
+        <bgColor rgb="0009F500"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0012EC00"/>
+        <bgColor rgb="0012EC00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0043BB00"/>
+        <bgColor rgb="0043BB00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="002FCF00"/>
+        <bgColor rgb="002FCF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0008F600"/>
+        <bgColor rgb="0008F600"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0000FE00"/>
+        <bgColor rgb="0000FE00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0004FA00"/>
+        <bgColor rgb="0004FA00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0003FB00"/>
+        <bgColor rgb="0003FB00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0023DB00"/>
+        <bgColor rgb="0023DB00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0006F800"/>
+        <bgColor rgb="0006F800"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0015E900"/>
+        <bgColor rgb="0015E900"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0007F700"/>
+        <bgColor rgb="0007F700"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0010EE00"/>
+        <bgColor rgb="0010EE00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="000BF300"/>
+        <bgColor rgb="000BF300"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0001FD00"/>
+        <bgColor rgb="0001FD00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0000FF00"/>
+        <bgColor rgb="0000FF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0019E500"/>
+        <bgColor rgb="0019E500"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="000FEF00"/>
+        <bgColor rgb="000FEF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0035C900"/>
+        <bgColor rgb="0035C900"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00A85600"/>
+        <bgColor rgb="00A85600"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00F90500"/>
+        <bgColor rgb="00F90500"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00768800"/>
+        <bgColor rgb="00768800"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00AD5100"/>
+        <bgColor rgb="00AD5100"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FF0000"/>
+        <bgColor rgb="00FF0000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FA0400"/>
+        <bgColor rgb="00FA0400"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00798500"/>
+        <bgColor rgb="00798500"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00F70700"/>
+        <bgColor rgb="00F70700"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FC0200"/>
+        <bgColor rgb="00FC0200"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="007D8100"/>
+        <bgColor rgb="007D8100"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00827C00"/>
+        <bgColor rgb="00827C00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0039C500"/>
+        <bgColor rgb="0039C500"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0024DA00"/>
+        <bgColor rgb="0024DA00"/>
       </patternFill>
     </fill>
     <fill>
@@ -98,206 +248,38 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="0052AC00"/>
-        <bgColor rgb="0052AC00"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00F40A00"/>
-        <bgColor rgb="00F40A00"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="004FAF00"/>
-        <bgColor rgb="004FAF00"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="006A9400"/>
-        <bgColor rgb="006A9400"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="002DD100"/>
-        <bgColor rgb="002DD100"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="007B8300"/>
-        <bgColor rgb="007B8300"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="0054AA00"/>
-        <bgColor rgb="0054AA00"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00996500"/>
-        <bgColor rgb="00996500"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="0021DD00"/>
-        <bgColor rgb="0021DD00"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="0000FF00"/>
-        <bgColor rgb="0000FF00"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00699500"/>
-        <bgColor rgb="00699500"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="008F6F00"/>
-        <bgColor rgb="008F6F00"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="0012EC00"/>
-        <bgColor rgb="0012EC00"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00916D00"/>
-        <bgColor rgb="00916D00"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00F30B00"/>
-        <bgColor rgb="00F30B00"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00A15D00"/>
-        <bgColor rgb="00A15D00"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="009A6400"/>
-        <bgColor rgb="009A6400"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="0040BE00"/>
-        <bgColor rgb="0040BE00"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00C83600"/>
-        <bgColor rgb="00C83600"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00E01E00"/>
-        <bgColor rgb="00E01E00"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00E21C00"/>
-        <bgColor rgb="00E21C00"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00CD3100"/>
-        <bgColor rgb="00CD3100"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00768800"/>
-        <bgColor rgb="00768800"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="007D8100"/>
-        <bgColor rgb="007D8100"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="0058A600"/>
-        <bgColor rgb="0058A600"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00AA5400"/>
-        <bgColor rgb="00AA5400"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00FA0400"/>
-        <bgColor rgb="00FA0400"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="009C6200"/>
-        <bgColor rgb="009C6200"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="005BA300"/>
-        <bgColor rgb="005BA300"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00758900"/>
-        <bgColor rgb="00758900"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="0006F800"/>
-        <bgColor rgb="0006F800"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00936B00"/>
-        <bgColor rgb="00936B00"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00FF0000"/>
-        <bgColor rgb="00FF0000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00AE5000"/>
-        <bgColor rgb="00AE5000"/>
+        <fgColor rgb="00857900"/>
+        <bgColor rgb="00857900"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0016E800"/>
+        <bgColor rgb="0016E800"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0002FC00"/>
+        <bgColor rgb="0002FC00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="002CD200"/>
+        <bgColor rgb="002CD200"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0028D600"/>
+        <bgColor rgb="0028D600"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="001AE400"/>
+        <bgColor rgb="001AE400"/>
       </patternFill>
     </fill>
   </fills>
@@ -319,7 +301,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
@@ -365,9 +347,6 @@
     <xf numFmtId="0" fontId="0" fillId="40" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="41" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="42" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="43" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="44" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="45" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -790,25 +769,25 @@
         </is>
       </c>
       <c r="B2" s="2" t="n">
-        <v>34.56961047698816</v>
+        <v>50.5897442995181</v>
       </c>
       <c r="C2" s="3" t="n">
-        <v>33.80734890733969</v>
+        <v>48.90026471350733</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>37.4009995487917</v>
+        <v>58.27486848060597</v>
       </c>
       <c r="E2" s="5" t="n">
-        <v>35.39745692067864</v>
+        <v>56.25097995944128</v>
       </c>
       <c r="F2" s="6" t="n">
-        <v>25.34509611142192</v>
-      </c>
-      <c r="G2" s="7" t="n">
-        <v>31.7990593904367</v>
-      </c>
-      <c r="H2" s="8" t="n">
-        <v>38.67450869732065</v>
+        <v>44.49486537737686</v>
+      </c>
+      <c r="G2" s="4" t="n">
+        <v>58.17373805908169</v>
+      </c>
+      <c r="H2" s="7" t="n">
+        <v>49.23146041422665</v>
       </c>
     </row>
     <row r="3">
@@ -817,26 +796,26 @@
           <t>deterministic_tournament</t>
         </is>
       </c>
-      <c r="B3" s="9" t="n">
-        <v>40.79202721164224</v>
-      </c>
-      <c r="C3" s="10" t="n">
-        <v>35.53855625658157</v>
-      </c>
-      <c r="D3" s="11" t="n">
-        <v>42.6031532407655</v>
-      </c>
-      <c r="E3" s="12" t="n">
-        <v>38.21662722619897</v>
-      </c>
-      <c r="F3" s="13" t="n">
-        <v>24.75561981086007</v>
-      </c>
-      <c r="G3" s="14" t="n">
-        <v>38.47510039156662</v>
-      </c>
-      <c r="H3" s="15" t="n">
-        <v>36.22025788876599</v>
+      <c r="B3" s="8" t="n">
+        <v>58.45387537573669</v>
+      </c>
+      <c r="C3" s="9" t="n">
+        <v>60.4756427867211</v>
+      </c>
+      <c r="D3" s="10" t="n">
+        <v>59.54283459219148</v>
+      </c>
+      <c r="E3" s="11" t="n">
+        <v>59.69312410178939</v>
+      </c>
+      <c r="F3" s="12" t="n">
+        <v>52.14365410684114</v>
+      </c>
+      <c r="G3" s="13" t="n">
+        <v>58.94064017737083</v>
+      </c>
+      <c r="H3" s="14" t="n">
+        <v>55.50961087793083</v>
       </c>
     </row>
     <row r="4">
@@ -845,26 +824,26 @@
           <t>elite</t>
         </is>
       </c>
-      <c r="B4" s="16" t="n">
-        <v>41.34404590295242</v>
-      </c>
-      <c r="C4" s="17" t="n">
-        <v>34.79410437901196</v>
-      </c>
-      <c r="D4" s="2" t="n">
-        <v>34.59453478003564</v>
-      </c>
-      <c r="E4" s="18" t="n">
-        <v>38.05696823464935</v>
-      </c>
-      <c r="F4" s="19" t="n">
-        <v>32.34236978711257</v>
-      </c>
-      <c r="G4" s="20" t="n">
-        <v>42.26866497444157</v>
-      </c>
-      <c r="H4" s="21" t="n">
-        <v>45.0809723859586</v>
+      <c r="B4" s="15" t="n">
+        <v>58.76014640951301</v>
+      </c>
+      <c r="C4" s="16" t="n">
+        <v>56.66761148198648</v>
+      </c>
+      <c r="D4" s="11" t="n">
+        <v>59.67028146037499</v>
+      </c>
+      <c r="E4" s="17" t="n">
+        <v>57.8048862483265</v>
+      </c>
+      <c r="F4" s="18" t="n">
+        <v>60.08023865977494</v>
+      </c>
+      <c r="G4" s="18" t="n">
+        <v>60.13370252172221</v>
+      </c>
+      <c r="H4" s="19" t="n">
+        <v>60.54795817148104</v>
       </c>
     </row>
     <row r="5">
@@ -873,26 +852,26 @@
           <t>probabilistic_tournament</t>
         </is>
       </c>
-      <c r="B5" s="22" t="n">
-        <v>36.31928183752044</v>
-      </c>
-      <c r="C5" s="23" t="n">
-        <v>33.13156521967881</v>
-      </c>
-      <c r="D5" s="24" t="n">
-        <v>43.5709107451142</v>
-      </c>
-      <c r="E5" s="25" t="n">
-        <v>33.03493403850568</v>
-      </c>
-      <c r="F5" s="26" t="n">
-        <v>24.91005816390107</v>
-      </c>
-      <c r="G5" s="27" t="n">
-        <v>31.66536181671854</v>
-      </c>
-      <c r="H5" s="17" t="n">
-        <v>34.82087895794083</v>
+      <c r="B5" s="20" t="n">
+        <v>54.40040167129008</v>
+      </c>
+      <c r="C5" s="21" t="n">
+        <v>56.7921419805415</v>
+      </c>
+      <c r="D5" s="22" t="n">
+        <v>47.79379627554304</v>
+      </c>
+      <c r="E5" s="23" t="n">
+        <v>20.55189134592973</v>
+      </c>
+      <c r="F5" s="24" t="n">
+        <v>1.297532738506293</v>
+      </c>
+      <c r="G5" s="25" t="n">
+        <v>32.52668557342892</v>
+      </c>
+      <c r="H5" s="26" t="n">
+        <v>19.2444156189729</v>
       </c>
     </row>
     <row r="6">
@@ -901,26 +880,26 @@
           <t>ranking</t>
         </is>
       </c>
-      <c r="B6" s="28" t="n">
-        <v>32.27873144294159</v>
-      </c>
-      <c r="C6" s="29" t="n">
-        <v>39.72221773918098</v>
-      </c>
-      <c r="D6" s="19" t="n">
-        <v>32.31729905358404</v>
+      <c r="B6" s="27" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" s="28" t="n">
+        <v>1.184900730062889</v>
+      </c>
+      <c r="D6" s="29" t="n">
+        <v>31.61929884597141</v>
       </c>
       <c r="E6" s="30" t="n">
-        <v>28.40401156158803</v>
+        <v>1.7579910218795</v>
       </c>
       <c r="F6" s="31" t="n">
-        <v>26.41968659287506</v>
+        <v>0.6174107663792509</v>
       </c>
       <c r="G6" s="32" t="n">
-        <v>26.24094458606573</v>
+        <v>30.73099832253294</v>
       </c>
       <c r="H6" s="33" t="n">
-        <v>27.99622333553223</v>
+        <v>29.48358458175601</v>
       </c>
     </row>
     <row r="7">
@@ -930,25 +909,25 @@
         </is>
       </c>
       <c r="B7" s="34" t="n">
-        <v>35.22139594780863</v>
+        <v>47.00398657552117</v>
       </c>
       <c r="C7" s="35" t="n">
-        <v>34.63919572821099</v>
-      </c>
-      <c r="D7" s="36" t="n">
-        <v>37.72031811324442</v>
-      </c>
-      <c r="E7" s="37" t="n">
-        <v>30.96726829940629</v>
-      </c>
-      <c r="F7" s="38" t="n">
-        <v>24.24797968996332</v>
-      </c>
-      <c r="G7" s="39" t="n">
-        <v>32.12303895780693</v>
-      </c>
-      <c r="H7" s="40" t="n">
-        <v>37.46833682267284</v>
+        <v>51.82855912495835</v>
+      </c>
+      <c r="D7" s="14" t="n">
+        <v>55.47743535495833</v>
+      </c>
+      <c r="E7" s="36" t="n">
+        <v>53.44812611227039</v>
+      </c>
+      <c r="F7" s="37" t="n">
+        <v>28.75029826926688</v>
+      </c>
+      <c r="G7" s="38" t="n">
+        <v>55.09847300030302</v>
+      </c>
+      <c r="H7" s="20" t="n">
+        <v>54.50715514674344</v>
       </c>
     </row>
     <row r="8">
@@ -957,26 +936,26 @@
           <t>universal</t>
         </is>
       </c>
-      <c r="B8" s="41" t="n">
-        <v>35.36520624208785</v>
-      </c>
-      <c r="C8" s="12" t="n">
-        <v>38.25313599468108</v>
-      </c>
-      <c r="D8" s="42" t="n">
-        <v>44.5457229253858</v>
-      </c>
-      <c r="E8" s="43" t="n">
-        <v>32.83170488278888</v>
-      </c>
-      <c r="F8" s="44" t="n">
-        <v>23.91484095570765</v>
-      </c>
-      <c r="G8" s="45" t="n">
-        <v>30.61002008750804</v>
-      </c>
-      <c r="H8" s="40" t="n">
-        <v>37.48859237172561</v>
+      <c r="B8" s="15" t="n">
+        <v>58.7355806712276</v>
+      </c>
+      <c r="C8" s="39" t="n">
+        <v>60.02339901289812</v>
+      </c>
+      <c r="D8" s="11" t="n">
+        <v>59.74435310285889</v>
+      </c>
+      <c r="E8" s="40" t="n">
+        <v>49.99901605818572</v>
+      </c>
+      <c r="F8" s="41" t="n">
+        <v>50.95801635643985</v>
+      </c>
+      <c r="G8" s="8" t="n">
+        <v>58.4154866352166</v>
+      </c>
+      <c r="H8" s="42" t="n">
+        <v>54.21457687697151</v>
       </c>
     </row>
   </sheetData>
